--- a/sriramModel-nelson-melancholic-patientID_55-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.92037638953719</v>
+        <v>18.9286062539163</v>
       </c>
       <c r="C2">
-        <v>18.93329647968411</v>
+        <v>18.94810361192927</v>
       </c>
       <c r="D2">
-        <v>18.95713007666991</v>
+        <v>18.95258896136286</v>
       </c>
       <c r="E2">
-        <v>18.92976043641586</v>
+        <v>18.94676404207963</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18.9843072544356</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82412617640468</v>
+        <v>18.84118978536369</v>
       </c>
       <c r="C3">
-        <v>18.84985301197051</v>
+        <v>18.87990353558188</v>
       </c>
       <c r="D3">
-        <v>18.89583669407229</v>
+        <v>18.8883991974068</v>
       </c>
       <c r="E3">
-        <v>18.84341821394603</v>
+        <v>18.87752206508219</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18.95019891920983</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73121707308257</v>
+        <v>18.75770188879534</v>
       </c>
       <c r="C4">
-        <v>18.76961494075574</v>
+        <v>18.81537219725981</v>
       </c>
       <c r="D4">
-        <v>18.83610510730574</v>
+        <v>18.82738920429425</v>
       </c>
       <c r="E4">
-        <v>18.7609433652766</v>
+        <v>18.81225733449551</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18.91765440310748</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64162229619929</v>
+        <v>18.67809712484762</v>
       </c>
       <c r="C5">
-        <v>18.69253349806695</v>
+        <v>18.75448256705813</v>
       </c>
       <c r="D5">
-        <v>18.77792112312616</v>
+        <v>18.76951924131637</v>
       </c>
       <c r="E5">
-        <v>18.68230676518004</v>
+        <v>18.75095300533415</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.88665386898225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55531912289878</v>
+        <v>18.60233289935208</v>
       </c>
       <c r="C6">
-        <v>18.61856466060577</v>
+        <v>18.69720831283043</v>
       </c>
       <c r="D6">
-        <v>18.72127105745963</v>
+        <v>18.71475122767078</v>
       </c>
       <c r="E6">
-        <v>18.60748017927171</v>
+        <v>18.69359243905519</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>18.85717822987191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47228785147777</v>
+        <v>18.53036926075038</v>
       </c>
       <c r="C7">
-        <v>18.54766831803808</v>
+        <v>18.64352370203905</v>
       </c>
       <c r="D7">
-        <v>18.66614172687986</v>
+        <v>18.66304869527437</v>
       </c>
       <c r="E7">
-        <v>18.53643620942246</v>
+        <v>18.64015918086933</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>18.82920905911995</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.39251113086655</v>
+        <v>18.46216857251152</v>
       </c>
       <c r="C8">
-        <v>18.47980760347574</v>
+        <v>18.59340354838854</v>
       </c>
       <c r="D8">
-        <v>18.6125203978337</v>
+        <v>18.61437662226219</v>
       </c>
       <c r="E8">
-        <v>18.46914824823005</v>
+        <v>18.5906369506574</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>18.8027286015141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.31597346369804</v>
+        <v>18.3976952483461</v>
       </c>
       <c r="C9">
-        <v>18.41494837695219</v>
+        <v>18.54682315635388</v>
       </c>
       <c r="D9">
-        <v>18.56039473559427</v>
+        <v>18.56870133031975</v>
       </c>
       <c r="E9">
-        <v>18.40559043487299</v>
+        <v>18.54500963649701</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>18.77771971179251</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.24266082671052</v>
+        <v>18.33691556936013</v>
       </c>
       <c r="C10">
-        <v>18.35305881354742</v>
+        <v>18.50375828883968</v>
       </c>
       <c r="D10">
-        <v>18.50975277415064</v>
+        <v>18.52599041467704</v>
       </c>
       <c r="E10">
-        <v>18.34573762179143</v>
+        <v>18.50326128698694</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>18.7541658022909</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.17256040454304</v>
+        <v>18.27979752210913</v>
       </c>
       <c r="C11">
-        <v>18.29410906520352</v>
+        <v>18.46418507669849</v>
       </c>
       <c r="D11">
-        <v>18.4605828912519</v>
+        <v>18.48621265651037</v>
       </c>
       <c r="E11">
-        <v>18.28956534457741</v>
+        <v>18.46537610351704</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>18.7320508096783</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.10566038208673</v>
+        <v>18.22631062019866</v>
       </c>
       <c r="C12">
-        <v>18.2380709559208</v>
+        <v>18.42807996135877</v>
       </c>
       <c r="D12">
-        <v>18.41287377507596</v>
+        <v>18.44933793945637</v>
       </c>
       <c r="E12">
-        <v>18.23704979148273</v>
+        <v>18.43133842487603</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>18.71135917069757</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.0419497684572</v>
+        <v>18.17642574183475</v>
       </c>
       <c r="C13">
-        <v>18.18491776316464</v>
+        <v>18.39541965062345</v>
       </c>
       <c r="D13">
-        <v>18.36661439466225</v>
+        <v>18.41533718173097</v>
       </c>
       <c r="E13">
-        <v>18.18816773417901</v>
+        <v>18.40113272543185</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18.69207579389564</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.98141826681702</v>
+        <v>18.13011501076193</v>
       </c>
       <c r="C14">
-        <v>18.13462403512713</v>
+        <v>18.36618106744717</v>
       </c>
       <c r="D14">
-        <v>18.32179397467513</v>
+        <v>18.38418227372069</v>
       </c>
       <c r="E14">
-        <v>18.14289651094297</v>
+        <v>18.37474362745851</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>18.67418602257705</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.92405616857089</v>
+        <v>18.08735169800558</v>
       </c>
       <c r="C15">
-        <v>18.08716541308321</v>
+        <v>18.34034129627117</v>
       </c>
       <c r="D15">
-        <v>18.27840197249977</v>
+        <v>18.35584601788524</v>
       </c>
       <c r="E15">
-        <v>18.1012140176587</v>
+        <v>18.35215584471998</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>18.65767560593822</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.86985426607944</v>
+        <v>18.04811011465554</v>
       </c>
       <c r="C16">
-        <v>18.04251848071199</v>
+        <v>18.31787752942987</v>
       </c>
       <c r="D16">
-        <v>18.23642805588519</v>
+        <v>18.33030208449812</v>
       </c>
       <c r="E16">
-        <v>18.06309867714062</v>
+        <v>18.33335421517458</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>18.64253067231991</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.81880377685595</v>
+        <v>18.0123655074173</v>
       </c>
       <c r="C17">
-        <v>18.00066064206957</v>
+        <v>18.29876700694502</v>
       </c>
       <c r="D17">
-        <v>18.19586208109572</v>
+        <v>18.30752496490389</v>
       </c>
       <c r="E17">
-        <v>18.02852940571058</v>
+        <v>18.31832364554805</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>18.62873770338017</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.77089627658691</v>
+        <v>17.98009396691636</v>
       </c>
       <c r="C18">
-        <v>17.96157000557013</v>
+        <v>18.28298696020483</v>
       </c>
       <c r="D18">
-        <v>18.15669406842349</v>
+        <v>18.2874899064617</v>
       </c>
       <c r="E18">
-        <v>17.997485584765</v>
+        <v>18.30704912530781</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>18.6162835080051</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.72612365004454</v>
+        <v>17.951272321294</v>
       </c>
       <c r="C19">
-        <v>17.92522530836219</v>
+        <v>18.27051454556747</v>
       </c>
       <c r="D19">
-        <v>18.11891418990151</v>
+        <v>18.27017287683968</v>
       </c>
       <c r="E19">
-        <v>17.96994703900616</v>
+        <v>18.29951569892456</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>18.60515519574497</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.68447804435363</v>
+        <v>17.92587807819841</v>
       </c>
       <c r="C20">
-        <v>17.89160581920589</v>
+        <v>18.26132680532456</v>
       </c>
       <c r="D20">
-        <v>18.08251273625089</v>
+        <v>18.25555052165004</v>
       </c>
       <c r="E20">
-        <v>17.94589401611201</v>
+        <v>18.29570846341534</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>18.59534014896072</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.64595182661176</v>
+        <v>17.90388933734933</v>
       </c>
       <c r="C21">
-        <v>17.86069125591171</v>
+        <v>18.25540060813167</v>
       </c>
       <c r="D21">
-        <v>18.04748013683702</v>
+        <v>18.2436001252151</v>
       </c>
       <c r="E21">
-        <v>17.92530716444411</v>
+        <v>18.29561253973749</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>18.58682598765785</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.61053753969306</v>
+        <v>17.88528470932502</v>
       </c>
       <c r="C22">
-        <v>17.83246171256083</v>
+        <v>18.25271255847306</v>
       </c>
       <c r="D22">
-        <v>18.01380688607813</v>
+        <v>18.23429958630724</v>
       </c>
       <c r="E22">
-        <v>17.90816750969295</v>
+        <v>18.29921306196802</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>18.57960056722731</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57822786922921</v>
+        <v>17.87004323429375</v>
       </c>
       <c r="C23">
-        <v>17.80689759218012</v>
+        <v>18.25323897346872</v>
       </c>
       <c r="D23">
-        <v>17.98148354669738</v>
+        <v>18.22762737906993</v>
       </c>
       <c r="E23">
-        <v>17.89445643361418</v>
+        <v>18.30649513965975</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>18.57365190246396</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.54901560858672</v>
+        <v>17.85814429284683</v>
       </c>
       <c r="C24">
-        <v>17.78397954498264</v>
+        <v>18.2569557785408</v>
       </c>
       <c r="D24">
-        <v>17.95050072984251</v>
+        <v>18.22356251863496</v>
       </c>
       <c r="E24">
-        <v>17.88415565219502</v>
+        <v>18.31744384258899</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>18.56896821428399</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.52289362531224</v>
+        <v>17.84956752468886</v>
       </c>
       <c r="C25">
-        <v>17.76368841303232</v>
+        <v>18.26383846698039</v>
       </c>
       <c r="D25">
-        <v>17.92084908125734</v>
+        <v>18.22208452958128</v>
       </c>
       <c r="E25">
-        <v>17.87724719210498</v>
+        <v>18.33204416286293</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>18.56553779829625</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>17.49985482749797</v>
+        <v>17.8442927393341</v>
       </c>
       <c r="C26">
-        <v>17.74600517187068</v>
+        <v>18.2738620120437</v>
       </c>
       <c r="D26">
-        <v>17.89251926308782</v>
+        <v>18.22317341405668</v>
       </c>
       <c r="E26">
-        <v>17.87371337065233</v>
+        <v>18.35028098058022</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>18.56334906472316</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.47989212958482</v>
+        <v>17.84229982399197</v>
       </c>
       <c r="C27">
-        <v>17.73091087106707</v>
+        <v>18.28700080446172</v>
       </c>
       <c r="D27">
-        <v>17.86550192698322</v>
+        <v>18.2268096230438</v>
       </c>
       <c r="E27">
-        <v>17.87353676878846</v>
+        <v>18.37213903304168</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>18.56239044121238</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.46299841684155</v>
+        <v>17.84356864677988</v>
       </c>
       <c r="C28">
-        <v>17.71838658224263</v>
+        <v>18.30322857006492</v>
       </c>
       <c r="D28">
-        <v>17.83978769019247</v>
+        <v>18.23297402631627</v>
       </c>
       <c r="E28">
-        <v>17.87670021024942</v>
+        <v>18.39760286155268</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>18.56265035335602</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>17.44916650784566</v>
+        <v>17.84807895055982</v>
       </c>
       <c r="C29">
-        <v>17.70841334329983</v>
+        <v>18.32251828233816</v>
       </c>
       <c r="D29">
-        <v>17.81536711287676</v>
+        <v>18.24164788280937</v>
       </c>
       <c r="E29">
-        <v>17.88318673566949</v>
+        <v>18.42665675894182</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>18.56411717550957</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17.43838911402899</v>
+        <v>17.85581023688894</v>
       </c>
       <c r="C30">
-        <v>17.70097210392132</v>
+        <v>18.34484208699562</v>
       </c>
       <c r="D30">
-        <v>17.79223067399011</v>
+        <v>18.25281281051488</v>
       </c>
       <c r="E30">
-        <v>17.89297956998276</v>
+        <v>18.4592847256081</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>18.56677916018938</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.43065879585524</v>
+        <v>17.86674164119407</v>
       </c>
       <c r="C31">
-        <v>17.69604366825121</v>
+        <v>18.37017117794208</v>
       </c>
       <c r="D31">
-        <v>17.77036874513106</v>
+        <v>18.26645075368615</v>
       </c>
       <c r="E31">
-        <v>17.90606209917767</v>
+        <v>18.49547037523921</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>18.57062439597329</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17.42596791274094</v>
+        <v>17.88085179643358</v>
       </c>
       <c r="C32">
-        <v>17.69360863556646</v>
+        <v>18.39847574343397</v>
       </c>
       <c r="D32">
-        <v>17.74977156168914</v>
+        <v>18.28254394876146</v>
       </c>
       <c r="E32">
-        <v>17.92241782485256</v>
+        <v>18.53519687569036</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>18.57564070890014</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>17.42430857352871</v>
+        <v>17.89811868659399</v>
       </c>
       <c r="C33">
-        <v>17.69364733844827</v>
+        <v>18.42972478717511</v>
       </c>
       <c r="D33">
-        <v>17.73042919081418</v>
+        <v>18.30107488844272</v>
       </c>
       <c r="E33">
-        <v>17.94203033330473</v>
+        <v>18.57844685049267</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>18.5818155947592</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>17.42567256492781</v>
+        <v>17.91851948344355</v>
       </c>
       <c r="C34">
-        <v>17.69613977688219</v>
+        <v>18.4638860887174</v>
       </c>
       <c r="D34">
-        <v>17.71233149526327</v>
+        <v>18.32202628174976</v>
       </c>
       <c r="E34">
-        <v>17.96488325098592</v>
+        <v>18.62520225135286</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>18.58913612232608</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>17.43005130729729</v>
+        <v>17.94203036590458</v>
       </c>
       <c r="C35">
-        <v>17.70106554859497</v>
+        <v>18.5009259789623</v>
       </c>
       <c r="D35">
-        <v>17.69546809478674</v>
+        <v>18.34538100956637</v>
       </c>
       <c r="E35">
-        <v>17.99096018026188</v>
+        <v>18.67544426996152</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>18.597588785439</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>17.4374357490004</v>
+        <v>17.96862632236837</v>
       </c>
       <c r="C36">
-        <v>17.70840377292826</v>
+        <v>18.54080929129529</v>
       </c>
       <c r="D36">
-        <v>17.67982832298484</v>
+        <v>18.37112207456569</v>
       </c>
       <c r="E36">
-        <v>18.02024466494968</v>
+        <v>18.7291531531807</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>18.60715945244373</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>17.44781629092216</v>
+        <v>17.998280930177</v>
       </c>
       <c r="C37">
-        <v>17.71813300802557</v>
+        <v>18.58349909910452</v>
       </c>
       <c r="D37">
-        <v>17.66540117877634</v>
+        <v>18.39923254432769</v>
       </c>
       <c r="E37">
-        <v>18.05272009191025</v>
+        <v>18.78630801780965</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>18.61783311697932</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>17.46118269109547</v>
+        <v>18.0309661149359</v>
       </c>
       <c r="C38">
-        <v>17.73023116055565</v>
+        <v>18.62895663088003</v>
       </c>
       <c r="D38">
-        <v>17.65217527128751</v>
+        <v>18.42969548623182</v>
       </c>
       <c r="E38">
-        <v>18.08836962409806</v>
+        <v>18.84688671347018</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>18.62959383124955</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>17.47752391159834</v>
+        <v>18.06665188150389</v>
       </c>
       <c r="C39">
-        <v>17.74467538580565</v>
+        <v>18.67714098343502</v>
       </c>
       <c r="D39">
-        <v>17.64013875780122</v>
+        <v>18.46249388592427</v>
       </c>
       <c r="E39">
-        <v>18.12717610687227</v>
+        <v>18.91086547958843</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>18.64242442779477</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>17.49682802612429</v>
+        <v>18.10530601095013</v>
       </c>
       <c r="C40">
-        <v>17.76144197583744</v>
+        <v>18.72800895131751</v>
       </c>
       <c r="D40">
-        <v>17.6292792724643</v>
+        <v>18.49761055508024</v>
       </c>
       <c r="E40">
-        <v>18.16912190677483</v>
+        <v>18.97821872034628</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>18.65630632716242</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>17.51908202607469</v>
+        <v>18.14689373047019</v>
       </c>
       <c r="C41">
-        <v>17.78050623775869</v>
+        <v>18.78151475575746</v>
       </c>
       <c r="D41">
-        <v>17.61958384376471</v>
+        <v>18.5350280160318</v>
       </c>
       <c r="E41">
-        <v>18.2141888406372</v>
+        <v>19.04891866619493</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>18.67121931499943</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>17.54427161594449</v>
+        <v>18.19137734210264</v>
       </c>
       <c r="C42">
-        <v>17.80184235179937</v>
+        <v>18.83760969273803</v>
       </c>
       <c r="D42">
-        <v>17.61103880038785</v>
+        <v>18.57472837743011</v>
       </c>
       <c r="E42">
-        <v>18.2623579166237</v>
+        <v>19.12293486183704</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>18.68714109826084</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>17.57238107056369</v>
+        <v>18.23871581257103</v>
       </c>
       <c r="C43">
-        <v>17.82542321379186</v>
+        <v>18.8962419588186</v>
       </c>
       <c r="D43">
-        <v>17.60362966153595</v>
+        <v>18.61669315751451</v>
       </c>
       <c r="E43">
-        <v>18.3136091670474</v>
+        <v>19.20023383553415</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>18.70404718503765</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>17.6033928651874</v>
+        <v>18.28886431892084</v>
       </c>
       <c r="C44">
-        <v>17.85122025614661</v>
+        <v>18.95735598006758</v>
       </c>
       <c r="D44">
-        <v>17.59734100890599</v>
+        <v>18.66090308520887</v>
       </c>
       <c r="E44">
-        <v>18.36792141196766</v>
+        <v>19.28077838552939</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>18.721910191157</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>17.63728744348735</v>
+        <v>18.34177372550922</v>
       </c>
       <c r="C45">
-        <v>17.87920324309581</v>
+        <v>19.02089239889235</v>
       </c>
       <c r="D45">
-        <v>17.59215633554881</v>
+        <v>18.70733784480064</v>
       </c>
       <c r="E45">
-        <v>18.42527181029162</v>
+        <v>19.36452681451158</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>18.74069962968656</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>17.674042856559</v>
+        <v>18.39739001690076</v>
       </c>
       <c r="C46">
-        <v>17.90934003329226</v>
+        <v>19.08678703293335</v>
       </c>
       <c r="D46">
-        <v>17.58805787013592</v>
+        <v>18.75597579020238</v>
       </c>
       <c r="E46">
-        <v>18.48563567956003</v>
+        <v>19.45143238824962</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>18.76038118209723</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>17.71363422105882</v>
+        <v>18.45565365692035</v>
       </c>
       <c r="C47">
-        <v>17.94159631713881</v>
+        <v>19.15497095052485</v>
       </c>
       <c r="D47">
-        <v>17.58502636642134</v>
+        <v>18.80679354279259</v>
       </c>
       <c r="E47">
-        <v>18.54898577420792</v>
+        <v>19.54144191826581</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>18.78091620082269</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>17.75603339450497</v>
+        <v>18.51649887201782</v>
       </c>
       <c r="C48">
-        <v>17.97593529410741</v>
+        <v>19.22536915645652</v>
       </c>
       <c r="D48">
-        <v>17.58304085350852</v>
+        <v>18.85976552038008</v>
       </c>
       <c r="E48">
-        <v>18.61529179694552</v>
+        <v>19.63449476548489</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>18.80226080879712</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>17.80120819331784</v>
+        <v>18.57985286717477</v>
       </c>
       <c r="C49">
-        <v>18.01231730992742</v>
+        <v>19.29790008113792</v>
       </c>
       <c r="D49">
-        <v>17.58207833396743</v>
+        <v>18.91486333737129</v>
       </c>
       <c r="E49">
-        <v>18.68451979267747</v>
+        <v>19.73052159178957</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>18.82436508701294</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>17.84912162397752</v>
+        <v>18.64563490300842</v>
       </c>
       <c r="C50">
-        <v>18.05069942707366</v>
+        <v>19.37247462619375</v>
       </c>
       <c r="D50">
-        <v>17.58211342106076</v>
+        <v>18.97205510458159</v>
       </c>
       <c r="E50">
-        <v>18.75663095806786</v>
+        <v>19.82944216141417</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>18.84717215491682</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>17.89973144278036</v>
+        <v>18.71375531552744</v>
       </c>
       <c r="C51">
-        <v>18.09103492762026</v>
+        <v>19.44899515639421</v>
       </c>
       <c r="D51">
-        <v>17.58311790041303</v>
+        <v>19.03130449558703</v>
       </c>
       <c r="E51">
-        <v>18.83158056515445</v>
+        <v>19.93116334016809</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>18.87061701373154</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>17.95298842955142</v>
+        <v>18.78411438474804</v>
       </c>
       <c r="C52">
-        <v>18.13327275982916</v>
+        <v>19.52735414396617</v>
       </c>
       <c r="D52">
-        <v>17.58506022071107</v>
+        <v>19.09256962398987</v>
       </c>
       <c r="E52">
-        <v>18.90931662936798</v>
+        <v>20.03557669723778</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>18.89462543406717</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>18.03098143327254</v>
+        <v>18.87558159833534</v>
       </c>
       <c r="C53">
-        <v>18.20106521980843</v>
+        <v>19.62381130451048</v>
       </c>
       <c r="D53">
-        <v>17.61647651759158</v>
+        <v>19.17436516840695</v>
       </c>
       <c r="E53">
-        <v>19.00787364690686</v>
+        <v>20.16026979873343</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>18.94222534123214</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>18.15558656357874</v>
+        <v>19.00665470180993</v>
       </c>
       <c r="C54">
-        <v>18.31774969537237</v>
+        <v>19.75423272758457</v>
       </c>
       <c r="D54">
-        <v>17.70559823609137</v>
+        <v>19.29500286931488</v>
       </c>
       <c r="E54">
-        <v>19.14509350939233</v>
+        <v>20.32250750420516</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>19.0359523732402</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>18.32638443006262</v>
+        <v>19.17661644237043</v>
       </c>
       <c r="C55">
-        <v>18.48277333051493</v>
+        <v>19.91786213059388</v>
       </c>
       <c r="D55">
-        <v>17.85191908937167</v>
+        <v>19.45411621683506</v>
       </c>
       <c r="E55">
-        <v>19.32059505234632</v>
+        <v>20.52161101846894</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>19.17494050845274</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18.54288350641655</v>
+        <v>19.38467025084915</v>
       </c>
       <c r="C56">
-        <v>18.69553562127591</v>
+        <v>20.11386847867212</v>
       </c>
       <c r="D56">
-        <v>18.05488389725414</v>
+        <v>19.65130056512399</v>
       </c>
       <c r="E56">
-        <v>19.53394027532242</v>
+        <v>20.75678478706328</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>19.35822235543364</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>18.80450309343308</v>
+        <v>19.62992446048024</v>
       </c>
       <c r="C57">
-        <v>18.9553736007159</v>
+        <v>20.3413304760827</v>
       </c>
       <c r="D57">
-        <v>18.31386475985047</v>
+        <v>19.88609129051668</v>
       </c>
       <c r="E57">
-        <v>19.7846138825225</v>
+        <v>21.02709160120234</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>19.58469030074132</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>19.11055259342895</v>
+        <v>19.91137547627624</v>
       </c>
       <c r="C58">
-        <v>19.26154606859508</v>
+        <v>20.59921846432214</v>
       </c>
       <c r="D58">
-        <v>18.62813712217154</v>
+        <v>20.15793904551753</v>
       </c>
       <c r="E58">
-        <v>20.07199906803279</v>
+        <v>21.33142205943721</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>19.8530612269787</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>19.46020717280147</v>
+        <v>20.22788982059389</v>
       </c>
       <c r="C59">
-        <v>19.61321489311763</v>
+        <v>20.88637362852272</v>
       </c>
       <c r="D59">
-        <v>18.99685160023427</v>
+        <v>20.466181908572</v>
       </c>
       <c r="E59">
-        <v>20.39534970652439</v>
+        <v>21.66845902236413</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>20.16184041118351</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>19.85247534748009</v>
+        <v>20.57818483957777</v>
       </c>
       <c r="C60">
-        <v>20.00942219712849</v>
+        <v>21.20148466319947</v>
       </c>
       <c r="D60">
-        <v>19.41899771581355</v>
+        <v>20.81001067073922</v>
       </c>
       <c r="E60">
-        <v>20.75375446196029</v>
+        <v>22.03663766441899</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>20.5092841455175</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20.28616042363375</v>
+        <v>20.96080591019366</v>
       </c>
       <c r="C61">
-        <v>20.44906258016444</v>
+        <v>21.54305857218509</v>
       </c>
       <c r="D61">
-        <v>19.8933578946384</v>
+        <v>21.18842757658257</v>
       </c>
       <c r="E61">
-        <v>21.14609403893969</v>
+        <v>22.4341000772043</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>20.89335807475312</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>20.7598140231216</v>
+        <v>21.37410114319641</v>
       </c>
       <c r="C62">
-        <v>20.93084609355453</v>
+        <v>21.90938696406037</v>
       </c>
       <c r="D62">
-        <v>20.41844628860574</v>
+        <v>21.60019801952</v>
       </c>
       <c r="E62">
-        <v>21.57099254673844</v>
+        <v>22.85864777899481</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>21.3116946274683</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21.27167823900701</v>
+        <v>21.81619453696863</v>
       </c>
       <c r="C63">
-        <v>21.45325223610067</v>
+        <v>22.29850849177741</v>
       </c>
       <c r="D63">
-        <v>20.99242822269713</v>
+        <v>22.04379245624429</v>
       </c>
       <c r="E63">
-        <v>22.02675884788766</v>
+        <v>23.30769200190822</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>21.7615493236445</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21.81961555698233</v>
+        <v>22.28495518424671</v>
       </c>
       <c r="C64">
-        <v>22.01447137098575</v>
+        <v>22.70816521760698</v>
       </c>
       <c r="D64">
-        <v>21.6130136797312</v>
+        <v>22.51731965568138</v>
       </c>
       <c r="E64">
-        <v>22.51131943855287</v>
+        <v>23.77820563153493</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>22.23975769727903</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>22.4010265111461</v>
+        <v>22.77796384814156</v>
       </c>
       <c r="C65">
-        <v>22.61232797797815</v>
+        <v>23.13575454534089</v>
       </c>
       <c r="D65">
-        <v>22.27731727568906</v>
+        <v>23.01845204746509</v>
       </c>
       <c r="E65">
-        <v>23.02214533261022</v>
+        <v>24.26668242532025</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>22.74269585237457</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>23.01275333910579</v>
+        <v>23.29247783916254</v>
       </c>
       <c r="C66">
-        <v>23.24418213991333</v>
+        <v>23.57827927862396</v>
       </c>
       <c r="D66">
-        <v>22.98167656850208</v>
+        <v>23.54434557977563</v>
       </c>
       <c r="E66">
-        <v>23.55617485427714</v>
+        <v>24.76910954601242</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>23.26625005584441</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>23.65097225370325</v>
+        <v>23.8253947402342</v>
       </c>
       <c r="C67">
-        <v>23.90680267866584</v>
+        <v>24.03229953677916</v>
       </c>
       <c r="D67">
-        <v>23.72142188967518</v>
+        <v>24.09155935938836</v>
       </c>
       <c r="E67">
-        <v>24.10973865084708</v>
+        <v>25.2809620504962</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>23.80580057711123</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>24.31107844749938</v>
+        <v>24.37321713871837</v>
       </c>
       <c r="C68">
-        <v>24.59620508037142</v>
+        <v>24.49389330305074</v>
       </c>
       <c r="D68">
-        <v>24.49059675351439</v>
+        <v>24.65598326855444</v>
       </c>
       <c r="E68">
-        <v>24.67849557906143</v>
+        <v>25.7972287602874</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>24.35622867894338</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>24.9875738806496</v>
+        <v>24.93202116517623</v>
       </c>
       <c r="C69">
-        <v>25.30744876279378</v>
+        <v>24.95863662998027</v>
       </c>
       <c r="D69">
-        <v>25.28164155761995</v>
+        <v>25.23278531029014</v>
       </c>
       <c r="E69">
-        <v>25.2573925858528</v>
+        <v>26.31247826612926</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>24.91195065823244</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>25.67397341196599</v>
+        <v>25.49743240636134</v>
       </c>
       <c r="C70">
-        <v>26.03439198438283</v>
+        <v>25.42161747046563</v>
       </c>
       <c r="D70">
-        <v>26.08508023177417</v>
+        <v>25.81639467611368</v>
       </c>
       <c r="E70">
-        <v>25.84066322466641</v>
+        <v>26.82097208348952</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>25.46698971458477</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.36275511023213</v>
+        <v>26.06461922808493</v>
       </c>
       <c r="C71">
-        <v>26.76941369402925</v>
+        <v>25.87750066196365</v>
       </c>
       <c r="D71">
-        <v>26.88929144472301</v>
+        <v>26.40053841329764</v>
       </c>
       <c r="E71">
-        <v>26.42188440524424</v>
+        <v>27.31682770599769</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>26.01509171323742</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>27.04538709683323</v>
+        <v>26.62830560304036</v>
       </c>
       <c r="C72">
-        <v>27.50313717647834</v>
+        <v>26.32065849372511</v>
       </c>
       <c r="D72">
-        <v>27.68049784158757</v>
+        <v>26.97834958300176</v>
       </c>
       <c r="E72">
-        <v>26.99410583738051</v>
+        <v>27.79422584399624</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>26.54988641713472</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>27.71247490196519</v>
+        <v>27.18281570444661</v>
       </c>
       <c r="C73">
-        <v>28.22422760021569</v>
+        <v>26.74537992479547</v>
       </c>
       <c r="D73">
-        <v>28.44314474266714</v>
+        <v>27.54255989645283</v>
       </c>
       <c r="E73">
-        <v>27.55006398924081</v>
+        <v>28.24764893200959</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>27.06509098224683</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>28.35405520945753</v>
+        <v>27.72216317510593</v>
       </c>
       <c r="C74">
-        <v>28.91941333640461</v>
+        <v>27.14614842746582</v>
       </c>
       <c r="D74">
-        <v>29.16081884138378</v>
+        <v>28.08577914314499</v>
       </c>
       <c r="E74">
-        <v>28.08247936290758</v>
+        <v>28.67212936279023</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>27.55474569921128</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>28.96006820379078</v>
+        <v>28.24019055329495</v>
       </c>
       <c r="C75">
-        <v>29.57391302510204</v>
+        <v>27.51796854959272</v>
       </c>
       <c r="D75">
-        <v>29.81772802947547</v>
+        <v>28.60084787859206</v>
       </c>
       <c r="E75">
-        <v>28.58441678318682</v>
+        <v>29.06347904522075</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>28.01346375650344</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>29.52098383685013</v>
+        <v>28.73076878758452</v>
       </c>
       <c r="C76">
-        <v>30.1724827969776</v>
+        <v>27.8566909980364</v>
       </c>
       <c r="D76">
-        <v>30.40052612538528</v>
+        <v>29.08122974077051</v>
       </c>
       <c r="E76">
-        <v>29.04967547705769</v>
+        <v>29.41847303209888</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>28.43666948204848</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>30.02851955787259</v>
+        <v>29.18805140344007</v>
       </c>
       <c r="C77">
-        <v>30.70113013903279</v>
+        <v>28.15928220654252</v>
       </c>
       <c r="D77">
-        <v>30.90002551580854</v>
+        <v>29.52139486784773</v>
       </c>
       <c r="E77">
-        <v>29.47315506478212</v>
+        <v>29.73496312298115</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>28.82079859518413</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>30.47633298993638</v>
+        <v>29.60677476305247</v>
       </c>
       <c r="C78">
-        <v>31.14921438683547</v>
+        <v>28.42398085485931</v>
       </c>
       <c r="D78">
-        <v>31.31225200610156</v>
+        <v>29.91713848409559</v>
       </c>
       <c r="E78">
-        <v>29.8511445034173</v>
+        <v>30.01190911359104</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>29.163434093463</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>30.86054964731228</v>
+        <v>29.98257194678822</v>
       </c>
       <c r="C79">
-        <v>31.5112706550482</v>
+        <v>28.65032479251926</v>
       </c>
       <c r="D79">
-        <v>31.63851649296496</v>
+        <v>30.26578498338276</v>
       </c>
       <c r="E79">
-        <v>30.18148379266827</v>
+        <v>30.24932844882236</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>29.46336088250204</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31.18000528652162</v>
+        <v>30.31226252625949</v>
       </c>
       <c r="C80">
-        <v>31.78779966232321</v>
+        <v>28.83904018443089</v>
       </c>
       <c r="D80">
-        <v>31.88453931707361</v>
+        <v>30.56624779048704</v>
       </c>
       <c r="E80">
-        <v>30.46358750519681</v>
+        <v>30.44817606743407</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>29.72053417149773</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31.43614936968831</v>
+        <v>30.59406812535712</v>
       </c>
       <c r="C81">
-        <v>31.98467529898895</v>
+        <v>28.99183194982959</v>
       </c>
       <c r="D81">
-        <v>32.05900201438684</v>
+        <v>30.81894413702536</v>
       </c>
       <c r="E81">
-        <v>30.69832189185301</v>
+        <v>30.61017576893654</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>29.93596752886397</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31.63264214521121</v>
+        <v>30.82770652373981</v>
       </c>
       <c r="C82">
-        <v>32.11148578027722</v>
+        <v>29.11112062419721</v>
       </c>
       <c r="D82">
-        <v>32.17200359529796</v>
+        <v>31.02558928529036</v>
       </c>
       <c r="E82">
-        <v>30.8877740067875</v>
+        <v>30.73762820017539</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>30.11156051846311</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31.77475203570486</v>
+        <v>31.01435186315386</v>
       </c>
       <c r="C83">
-        <v>32.17951806012279</v>
+        <v>29.19977302485383</v>
       </c>
       <c r="D83">
-        <v>32.2337811505034</v>
+        <v>31.18891317133947</v>
       </c>
       <c r="E83">
-        <v>31.03495495261332</v>
+        <v>30.83321737646025</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>30.24989046900249</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31.86868872467845</v>
+        <v>31.15645084427526</v>
       </c>
       <c r="C84">
-        <v>32.20005001233919</v>
+        <v>29.26086220149037</v>
       </c>
       <c r="D84">
-        <v>32.25384857831357</v>
+        <v>31.3123470460887</v>
       </c>
       <c r="E84">
-        <v>31.14348540645163</v>
+        <v>30.89983401985576</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>30.35399366606399</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31.92099096981513</v>
+        <v>31.25743652523422</v>
       </c>
       <c r="C85">
-        <v>32.18325765604668</v>
+        <v>29.29747598703479</v>
       </c>
       <c r="D85">
-        <v>32.24053999465801</v>
+        <v>31.39972274600911</v>
       </c>
       <c r="E85">
-        <v>31.2173025867164</v>
+        <v>30.94042657551045</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>30.42715890456297</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31.93774353986468</v>
+        <v>31.32082802772412</v>
       </c>
       <c r="C86">
-        <v>32.13760746403874</v>
+        <v>29.31222071570953</v>
       </c>
       <c r="D86">
-        <v>32.20073297650691</v>
+        <v>31.45448490888731</v>
       </c>
       <c r="E86">
-        <v>31.2599760406177</v>
+        <v>30.9575416105709</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>30.47227790683502</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31.92477120519216</v>
+        <v>31.35080680975056</v>
       </c>
       <c r="C87">
-        <v>32.06999195521357</v>
+        <v>29.3076733674665</v>
       </c>
       <c r="D87">
-        <v>32.14011922948733</v>
+        <v>31.4803215468087</v>
       </c>
       <c r="E87">
-        <v>31.27521866648925</v>
+        <v>30.95376759450808</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>30.49244458957777</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>31.88755577022845</v>
+        <v>31.3521754271073</v>
       </c>
       <c r="C88">
-        <v>31.98589385925936</v>
+        <v>29.28654542857612</v>
       </c>
       <c r="D88">
-        <v>32.06337365729748</v>
+        <v>31.48129116761766</v>
       </c>
       <c r="E88">
-        <v>31.26697397941848</v>
+        <v>30.93187177337342</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>30.49109545630645</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31.83075108231389</v>
+        <v>31.32938017351129</v>
       </c>
       <c r="C89">
-        <v>31.88947327841765</v>
+        <v>29.25120659125728</v>
       </c>
       <c r="D89">
-        <v>31.97415476148053</v>
+        <v>31.46103769265692</v>
       </c>
       <c r="E89">
-        <v>31.23876181408065</v>
+        <v>30.89432774941445</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>30.4713249958461</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31.75822540728294</v>
+        <v>31.28640833179893</v>
       </c>
       <c r="C90">
-        <v>31.78385824556425</v>
+        <v>29.20370862941586</v>
       </c>
       <c r="D90">
-        <v>31.87529843764425</v>
+        <v>31.42277827362249</v>
       </c>
       <c r="E90">
-        <v>31.19367298520818</v>
+        <v>30.8433236816188</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>30.43587904083831</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31.67315236720789</v>
+        <v>31.22674474910906</v>
       </c>
       <c r="C91">
-        <v>31.67137600443519</v>
+        <v>29.14581501841189</v>
       </c>
       <c r="D91">
-        <v>31.76900008612282</v>
+        <v>31.36931374640754</v>
       </c>
       <c r="E91">
-        <v>31.13438520295655</v>
+        <v>30.78077630730271</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>30.38716089348447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.57810098739678</v>
+        <v>31.15336909666242</v>
       </c>
       <c r="C92">
-        <v>31.55376339135082</v>
+        <v>29.07903317593432</v>
       </c>
       <c r="D92">
-        <v>31.65694947781943</v>
+        <v>31.30305573776857</v>
       </c>
       <c r="E92">
-        <v>31.06319427663692</v>
+        <v>30.70835264080022</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>30.32725168778554</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31.47513541784413</v>
+        <v>31.06878915159571</v>
       </c>
       <c r="C93">
-        <v>31.43231028368445</v>
+        <v>29.00464528948774</v>
       </c>
       <c r="D93">
-        <v>31.5404499952684</v>
+        <v>31.22606350048448</v>
       </c>
       <c r="E93">
-        <v>30.98205220677822</v>
+        <v>30.62749438311741</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>30.25793784220195</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31.3659061113091</v>
+        <v>30.97509077750769</v>
       </c>
       <c r="C94">
-        <v>31.30797838005628</v>
+        <v>28.92374216086382</v>
       </c>
       <c r="D94">
-        <v>31.42050782167271</v>
+        <v>31.14008327693859</v>
       </c>
       <c r="E94">
-        <v>30.89260774085075</v>
+        <v>30.53944221253797</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>30.18074138207663</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31.25172379882863</v>
+        <v>30.87399106616448</v>
       </c>
       <c r="C95">
-        <v>31.18148697358501</v>
+        <v>28.83725059270036</v>
       </c>
       <c r="D95">
-        <v>31.29789792718821</v>
+        <v>31.04658808900212</v>
       </c>
       <c r="E95">
-        <v>30.79624649416914</v>
+        <v>30.44525979521607</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>30.09695147281366</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31.13362751960943</v>
+        <v>30.76689326951124</v>
       </c>
       <c r="C96">
-        <v>31.05337459815116</v>
+        <v>28.74595663849149</v>
       </c>
       <c r="D96">
-        <v>31.17322051497457</v>
+        <v>30.94681580169023</v>
       </c>
       <c r="E96">
-        <v>30.69412891069326</v>
+        <v>30.3458567146299</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>30.00765496951225</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31.01244190325206</v>
+        <v>30.65493912658414</v>
       </c>
       <c r="C97">
-        <v>30.9240468521679</v>
+        <v>28.65052752924851</v>
       </c>
       <c r="D97">
-        <v>31.04694006802773</v>
+        <v>30.84180402367299</v>
       </c>
       <c r="E97">
-        <v>30.587224270123</v>
+        <v>30.24200940266205</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>29.91376489436257</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>30.88881860852266</v>
+        <v>30.53905518981749</v>
       </c>
       <c r="C98">
-        <v>30.79380957140351</v>
+        <v>28.55153026259437</v>
       </c>
       <c r="D98">
-        <v>30.91941859014249</v>
+        <v>30.73242081857784</v>
       </c>
       <c r="E98">
-        <v>30.47634051228461</v>
+        <v>30.13437977551893</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>29.816046102906</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>30.76327262785042</v>
+        <v>30.41999184738595</v>
       </c>
       <c r="C99">
-        <v>30.66289537991777</v>
+        <v>28.44945002808205</v>
       </c>
       <c r="D99">
-        <v>30.79093908600269</v>
+        <v>30.61939138597243</v>
       </c>
       <c r="E99">
-        <v>30.36215021535965</v>
+        <v>30.02353156260258</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>29.71513793136017</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30.63621281960412</v>
+        <v>30.29835594943016</v>
       </c>
       <c r="C100">
-        <v>30.53148228185868</v>
+        <v>28.34469898070685</v>
       </c>
       <c r="D100">
-        <v>30.66172186883676</v>
+        <v>30.50332117400948</v>
       </c>
       <c r="E100">
-        <v>30.24521309798728</v>
+        <v>29.90994457300572</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>29.61157398139353</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>30.50796366877937</v>
+        <v>30.17463819932076</v>
       </c>
       <c r="C101">
-        <v>30.39970619085161</v>
+        <v>28.23762888689707</v>
       </c>
       <c r="D101">
-        <v>30.53193967675498</v>
+        <v>30.38471565053805</v>
       </c>
       <c r="E101">
-        <v>30.12599486173863</v>
+        <v>29.79402716562739</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>29.50579920796635</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>30.3787826745194</v>
+        <v>30.04923584332599</v>
       </c>
       <c r="C102">
-        <v>30.26767163921047</v>
+        <v>28.12854162070619</v>
       </c>
       <c r="D102">
-        <v>30.40172874710242</v>
+        <v>30.26399694911335</v>
       </c>
       <c r="E102">
-        <v>30.00488305031373</v>
+        <v>29.67612708561772</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>29.3981844830818</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>30.24887502230539</v>
+        <v>29.92247101164003</v>
       </c>
       <c r="C103">
-        <v>30.13545980817294</v>
+        <v>28.01769689549749</v>
       </c>
       <c r="D103">
-        <v>30.27119844743072</v>
+        <v>30.1415177890352</v>
       </c>
       <c r="E103">
-        <v>29.88220033382603</v>
+        <v>29.55654056351201</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>29.28903888123973</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>30.11840450197405</v>
+        <v>29.79460535008639</v>
       </c>
       <c r="C104">
-        <v>30.00313419712655</v>
+        <v>27.90531810572265</v>
       </c>
       <c r="D104">
-        <v>30.14043427923244</v>
+        <v>30.01757310464708</v>
       </c>
       <c r="E104">
-        <v>29.75821557091329</v>
+        <v>29.43552013921073</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>29.17862003506933</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>29.9875020889412</v>
+        <v>29.66585174745964</v>
       </c>
       <c r="C105">
-        <v>29.87074447796543</v>
+        <v>27.79159789694316</v>
       </c>
       <c r="D105">
-        <v>30.00950367671216</v>
+        <v>29.89240980499367</v>
       </c>
       <c r="E105">
-        <v>29.63315304288929</v>
+        <v>29.31328127192134</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>29.06714279145748</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>29.85627279892339</v>
+        <v>29.53638380834836</v>
       </c>
       <c r="C106">
-        <v>29.73832937652055</v>
+        <v>27.67670286321771</v>
       </c>
       <c r="D106">
-        <v>29.87846064178078</v>
+        <v>29.76623484475538</v>
       </c>
       <c r="E106">
-        <v>29.50720005507691</v>
+        <v>29.19000797048999</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>28.95478643204694</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>29.72480109439994</v>
+        <v>29.4063434844452</v>
       </c>
       <c r="C107">
-        <v>29.60591918080681</v>
+        <v>27.56077762712735</v>
       </c>
       <c r="D107">
-        <v>29.7473489273525</v>
+        <v>29.63922190945088</v>
       </c>
       <c r="E107">
-        <v>29.38051321533677</v>
+        <v>29.06585757121884</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>28.84170069986611</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>29.59315498651996</v>
+        <v>29.27584716883336</v>
       </c>
       <c r="C108">
-        <v>29.47353786164694</v>
+        <v>27.44394887621759</v>
       </c>
       <c r="D108">
-        <v>29.6162043687351</v>
+        <v>29.51151697675137</v>
       </c>
       <c r="E108">
-        <v>29.25322365405868</v>
+        <v>28.94096477511719</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>28.72801079347129</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>29.46138947154877</v>
+        <v>29.144990549772</v>
       </c>
       <c r="C109">
-        <v>29.34120464124631</v>
+        <v>27.3263268694597</v>
       </c>
       <c r="D109">
-        <v>29.48505529750085</v>
+        <v>29.3832429232329</v>
       </c>
       <c r="E109">
-        <v>29.12544132641787</v>
+        <v>28.81544505400217</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>28.61382151045989</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>29.3295492203824</v>
+        <v>29.01385249999296</v>
       </c>
       <c r="C110">
-        <v>29.20893493222714</v>
+        <v>27.20800746197351</v>
       </c>
       <c r="D110">
-        <v>29.35392405314251</v>
+        <v>29.25450334657473</v>
       </c>
       <c r="E110">
-        <v>28.9972585760741</v>
+        <v>28.68939752677341</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>28.49922068335279</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>29.19767055199994</v>
+        <v>28.88249821300786</v>
       </c>
       <c r="C111">
-        <v>29.07674103303853</v>
+        <v>27.08907455874449</v>
       </c>
       <c r="D111">
-        <v>29.22282892294853</v>
+        <v>29.12538573429803</v>
       </c>
       <c r="E111">
-        <v>28.86875308654054</v>
+        <v>28.56290739249915</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>28.38428202705695</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>29.06578299371948</v>
+        <v>28.75098173343504</v>
       </c>
       <c r="C112">
-        <v>28.94463277962334</v>
+        <v>26.96960206532054</v>
       </c>
       <c r="D112">
-        <v>29.0917851198962</v>
+        <v>28.99596409200416</v>
       </c>
       <c r="E112">
-        <v>28.7399903021759</v>
+        <v>28.43604799216428</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>28.26906749718141</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>28.93391062303408</v>
+        <v>28.61934799300014</v>
       </c>
       <c r="C113">
-        <v>28.81261810332629</v>
+        <v>26.84965481061783</v>
       </c>
       <c r="D113">
-        <v>28.96080509351334</v>
+        <v>28.86630112588097</v>
       </c>
       <c r="E113">
-        <v>28.61102544994523</v>
+        <v>28.30888254862944</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>28.15362924372399</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>28.80207317460336</v>
+        <v>28.48763444958802</v>
       </c>
       <c r="C114">
-        <v>28.68070344570988</v>
+        <v>26.72929157688021</v>
       </c>
       <c r="D114">
-        <v>28.82989887817192</v>
+        <v>28.736450057176</v>
       </c>
       <c r="E114">
-        <v>28.48190520891603</v>
+        <v>28.18146565826979</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>28.03801123080627</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>28.67028688436553</v>
+        <v>28.35587241456327</v>
       </c>
       <c r="C115">
-        <v>28.54889405329594</v>
+        <v>26.60856355840154</v>
       </c>
       <c r="D115">
-        <v>28.69907463204542</v>
+        <v>28.60645614249968</v>
       </c>
       <c r="E115">
-        <v>28.35266904565865</v>
+        <v>28.05384452460653</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>27.92225058053121</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>28.53856512662905</v>
+        <v>28.22408813269974</v>
       </c>
       <c r="C116">
-        <v>28.41719419779922</v>
+        <v>26.48751596656571</v>
       </c>
       <c r="D116">
-        <v>28.56833907106369</v>
+        <v>28.47635792368127</v>
       </c>
       <c r="E116">
-        <v>28.22335045785666</v>
+        <v>27.92606002198053</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>27.8063786886257</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>28.40691892841273</v>
+        <v>28.09230366202351</v>
       </c>
       <c r="C117">
-        <v>28.28560735563754</v>
+        <v>26.36618880362613</v>
       </c>
       <c r="D117">
-        <v>28.43769774049501</v>
+        <v>28.34618828228055</v>
       </c>
       <c r="E117">
-        <v>28.09397796409011</v>
+        <v>27.79814759941771</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>27.69042215136972</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>28.27535740240811</v>
+        <v>27.96053759071994</v>
       </c>
       <c r="C118">
-        <v>28.15413634785163</v>
+        <v>26.24461780515582</v>
       </c>
       <c r="D118">
-        <v>28.30715520089984</v>
+        <v>28.21597530130959</v>
       </c>
       <c r="E118">
-        <v>27.96457582063921</v>
+        <v>27.67013804709918</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>27.57440353661624</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>28.14388806296082</v>
+        <v>27.82880562260007</v>
       </c>
       <c r="C119">
-        <v>28.02278350843653</v>
+        <v>26.12283515377277</v>
       </c>
       <c r="D119">
-        <v>28.17671544535857</v>
+        <v>28.08574301692932</v>
       </c>
       <c r="E119">
-        <v>27.83516468912378</v>
+        <v>27.54205814849755</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>27.45834198539684</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>28.01251720942091</v>
+        <v>27.69712105720182</v>
       </c>
       <c r="C120">
-        <v>27.89155074334203</v>
+        <v>26.0008697936434</v>
       </c>
       <c r="D120">
-        <v>28.04638151033298</v>
+        <v>27.95551199801121</v>
       </c>
       <c r="E120">
-        <v>27.70576218847636</v>
+        <v>27.41393123599549</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>27.34225383085517</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>27.88125007164388</v>
+        <v>27.5654951460081</v>
       </c>
       <c r="C121">
-        <v>27.76043963877243</v>
+        <v>25.87874756492375</v>
       </c>
       <c r="D121">
-        <v>27.91615627425457</v>
+        <v>27.82530004448725</v>
       </c>
       <c r="E121">
-        <v>27.57638335645944</v>
+        <v>27.28577766508091</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>27.22615300821587</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>27.7500910176992</v>
+        <v>27.43393750721436</v>
       </c>
       <c r="C122">
-        <v>27.62945153132301</v>
+        <v>25.75649161779448</v>
       </c>
       <c r="D122">
-        <v>27.78604180320509</v>
+        <v>27.69512242838382</v>
       </c>
       <c r="E122">
-        <v>27.44704105293913</v>
+        <v>27.15761521968771</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>27.11005139369325</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>27.61904380695177</v>
+        <v>27.30245633759057</v>
       </c>
       <c r="C123">
-        <v>27.49858746223849</v>
+        <v>25.63412279854806</v>
       </c>
       <c r="D123">
-        <v>27.65603992272049</v>
+        <v>27.56499227342892</v>
       </c>
       <c r="E123">
-        <v>27.31774632043916</v>
+        <v>27.02945945628413</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>26.99395928103851</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>27.48811144951348</v>
+        <v>27.17105862049619</v>
       </c>
       <c r="C124">
-        <v>27.36784834721945</v>
+        <v>25.51165994014271</v>
       </c>
       <c r="D124">
-        <v>27.52615207342019</v>
+        <v>27.4349209236923</v>
       </c>
       <c r="E124">
-        <v>27.18850864338195</v>
+        <v>26.90132397072275</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>26.87788537071464</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>27.35729655363854</v>
+        <v>27.03975045849611</v>
       </c>
       <c r="C125">
-        <v>27.23723488030981</v>
+        <v>25.38911996052769</v>
       </c>
       <c r="D125">
-        <v>27.39637947806735</v>
+        <v>27.30491815377426</v>
       </c>
       <c r="E125">
-        <v>27.05933618798681</v>
+        <v>26.77322073723165</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>26.76183713948713</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>27.22660124030599</v>
+        <v>26.90853696566041</v>
       </c>
       <c r="C126">
-        <v>27.10674764973107</v>
+        <v>25.26651848278037</v>
       </c>
       <c r="D126">
-        <v>27.26672315069497</v>
+        <v>27.17499241378735</v>
       </c>
       <c r="E126">
-        <v>26.9302359758419</v>
+        <v>26.64516024977651</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>26.64582102410874</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>27.09602730341451</v>
+        <v>26.77742257014368</v>
       </c>
       <c r="C127">
-        <v>26.97638713103665</v>
+        <v>25.14386914685487</v>
       </c>
       <c r="D127">
-        <v>27.13718397118436</v>
+        <v>27.0451510314005</v>
       </c>
       <c r="E127">
-        <v>26.80121404722209</v>
+        <v>26.51715176358826</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>26.52984255761173</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>26.96557626378215</v>
+        <v>26.64641107865033</v>
       </c>
       <c r="C128">
-        <v>26.84615370876201</v>
+        <v>25.02118519028113</v>
       </c>
       <c r="D128">
-        <v>27.00776264837794</v>
+        <v>26.9154003960518</v>
       </c>
       <c r="E128">
-        <v>26.67227561443318</v>
+        <v>26.38920348289806</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>26.41390651870979</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>26.83524940749347</v>
+        <v>26.5155057598572</v>
       </c>
       <c r="C129">
-        <v>26.71604770781921</v>
+        <v>24.89847822558193</v>
       </c>
       <c r="D129">
-        <v>26.87845981750469</v>
+        <v>26.78574605467862</v>
       </c>
       <c r="E129">
-        <v>26.54342514701672</v>
+        <v>26.26132254463374</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>26.29801704788461</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>26.70504781222266</v>
+        <v>26.38470944275731</v>
       </c>
       <c r="C130">
-        <v>26.58606937974553</v>
+        <v>24.77575889852466</v>
       </c>
       <c r="D130">
-        <v>26.74927595660534</v>
+        <v>26.65619282740468</v>
       </c>
       <c r="E130">
-        <v>26.41466657866105</v>
+        <v>26.13351533856719</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>26.18217774251116</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>26.57497241642841</v>
+        <v>26.25402459798693</v>
       </c>
       <c r="C131">
-        <v>26.45621893071223</v>
+        <v>24.65303676028157</v>
       </c>
       <c r="D131">
-        <v>26.62021147664098</v>
+        <v>26.52674491708397</v>
       </c>
       <c r="E131">
-        <v>26.28600320508219</v>
+        <v>26.00578743041008</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>26.06639170340807</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>26.44502398327435</v>
+        <v>26.12345335104002</v>
       </c>
       <c r="C132">
-        <v>26.32649651813069</v>
+        <v>24.5303206760866</v>
       </c>
       <c r="D132">
-        <v>26.49126669602742</v>
+        <v>26.39740599066381</v>
       </c>
       <c r="E132">
-        <v>26.15743806427661</v>
+        <v>25.87814376864409</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>25.95066162495126</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>26.31520316859084</v>
+        <v>25.99299755269163</v>
       </c>
       <c r="C133">
-        <v>26.19690225836481</v>
+        <v>24.40761864789288</v>
       </c>
       <c r="D133">
-        <v>26.36244187883106</v>
+        <v>26.26817924378718</v>
       </c>
       <c r="E133">
-        <v>26.02897359746034</v>
+        <v>25.75058874431517</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>25.83498985456259</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>26.18551051642912</v>
+        <v>25.86265881121222</v>
       </c>
       <c r="C134">
-        <v>26.06743623773716</v>
+        <v>24.2849379433501</v>
       </c>
       <c r="D134">
-        <v>26.23373723581726</v>
+        <v>26.13906745061379</v>
       </c>
       <c r="E134">
-        <v>25.9006121248272</v>
+        <v>25.62312623549183</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>25.71937842898861</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>26.0559464844128</v>
+        <v>25.73243851256068</v>
       </c>
       <c r="C135">
-        <v>25.93809851355087</v>
+        <v>24.16228552863716</v>
       </c>
       <c r="D135">
-        <v>26.10515293780985</v>
+        <v>26.01007309589434</v>
       </c>
       <c r="E135">
-        <v>25.77235547865705</v>
+        <v>25.49575971453917</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>25.60382910609126</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>25.92651145914218</v>
+        <v>25.6023378644697</v>
       </c>
       <c r="C136">
-        <v>25.8088891208902</v>
+        <v>24.03966744331641</v>
       </c>
       <c r="D136">
-        <v>25.97668911988348</v>
+        <v>25.88119826626884</v>
       </c>
       <c r="E136">
-        <v>25.64420537504357</v>
+        <v>25.3684922507993</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>25.48834347378211</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>25.79720576554727</v>
+        <v>25.47235791453795</v>
       </c>
       <c r="C137">
-        <v>25.67980807702014</v>
+        <v>23.9170895828495</v>
       </c>
       <c r="D137">
-        <v>25.84834588544193</v>
+        <v>25.7524449368563</v>
       </c>
       <c r="E137">
-        <v>25.51616320823203</v>
+        <v>25.24132657331069</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>25.3729228398741</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>25.66802967257642</v>
+        <v>25.34249956322764</v>
       </c>
       <c r="C138">
-        <v>25.55085538048029</v>
+        <v>23.79455724114276</v>
       </c>
       <c r="D138">
-        <v>25.72012330562658</v>
+        <v>25.62381469045953</v>
       </c>
       <c r="E138">
-        <v>25.38823023609109</v>
+        <v>25.11426512284075</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>25.25756845536149</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>25.53898340942477</v>
+        <v>25.21276362608743</v>
       </c>
       <c r="C139">
-        <v>25.42203101856143</v>
+        <v>23.67207532852716</v>
       </c>
       <c r="D139">
-        <v>25.59202143039405</v>
+        <v>25.49530906491576</v>
       </c>
       <c r="E139">
-        <v>25.26040752329174</v>
+        <v>24.98731005429783</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>25.14228136691688</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>25.41006715979006</v>
+        <v>25.08315075099788</v>
       </c>
       <c r="C140">
-        <v>25.29333496323837</v>
+        <v>23.54964844259605</v>
       </c>
       <c r="D140">
-        <v>25.46404028562907</v>
+        <v>25.36692930827306</v>
       </c>
       <c r="E140">
-        <v>25.13269601376951</v>
+        <v>24.86046329891948</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>25.02706248800262</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>25.28128107579422</v>
+        <v>24.95366158319834</v>
       </c>
       <c r="C141">
-        <v>25.164767177192</v>
+        <v>23.42728085664844</v>
       </c>
       <c r="D141">
-        <v>25.33617988072036</v>
+        <v>25.23867656677304</v>
       </c>
       <c r="E141">
-        <v>25.0050965130773</v>
+        <v>24.73372657383497</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>24.91191268825576</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>25.15262527986021</v>
+        <v>24.82429662905738</v>
       </c>
       <c r="C142">
-        <v>25.03632761314059</v>
+        <v>23.30497641833097</v>
       </c>
       <c r="D142">
-        <v>25.20844021074231</v>
+        <v>25.11055182920166</v>
       </c>
       <c r="E142">
-        <v>24.87760974268966</v>
+        <v>24.60710138914683</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>24.7968326364172</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>25.02409986907442</v>
+        <v>24.69505633682041</v>
       </c>
       <c r="C143">
-        <v>24.90801621599203</v>
+        <v>23.18273883324626</v>
       </c>
       <c r="D143">
-        <v>25.08082125780099</v>
+        <v>24.98255596172091</v>
       </c>
       <c r="E143">
-        <v>24.75023630521754</v>
+        <v>24.480589126384</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>24.68182301151856</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>24.89570492002535</v>
+        <v>24.56594112690921</v>
       </c>
       <c r="C144">
-        <v>24.77983292421485</v>
+        <v>23.06057141387178</v>
       </c>
       <c r="D144">
-        <v>24.95332299451481</v>
+        <v>24.85468973393212</v>
       </c>
       <c r="E144">
-        <v>24.62297674485023</v>
+        <v>24.35419101496818</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>24.56688434369369</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>24.76744049118678</v>
+        <v>24.43695130059275</v>
       </c>
       <c r="C145">
-        <v>24.65177767034154</v>
+        <v>22.93847730833259</v>
       </c>
       <c r="D145">
-        <v>24.82594538289381</v>
+        <v>24.72695382129282</v>
       </c>
       <c r="E145">
-        <v>24.49583150904982</v>
+        <v>24.22790809878752</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>24.45201714098988</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>24.63930662459089</v>
+        <v>24.30808717140738</v>
       </c>
       <c r="C146">
-        <v>24.52385038210598</v>
+        <v>22.81645941731293</v>
       </c>
       <c r="D146">
-        <v>24.69868837674591</v>
+        <v>24.59934882509402</v>
       </c>
       <c r="E146">
-        <v>24.36880099676027</v>
+        <v>24.10174142731916</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>24.33722183456282</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>24.51130334993958</v>
+        <v>24.17934896377506</v>
       </c>
       <c r="C147">
-        <v>24.39605098300832</v>
+        <v>22.69452044535094</v>
       </c>
       <c r="D147">
-        <v>24.57155192278096</v>
+        <v>24.47187527420451</v>
       </c>
       <c r="E147">
-        <v>24.24188553836617</v>
+        <v>23.97569182897464</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>24.22249881880139</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>24.38343068398363</v>
+        <v>24.0507368890622</v>
       </c>
       <c r="C148">
-        <v>24.26837939245007</v>
+        <v>22.57266292115117</v>
       </c>
       <c r="D148">
-        <v>24.44453596090284</v>
+        <v>24.34453364675333</v>
       </c>
       <c r="E148">
-        <v>24.1150854209842</v>
+        <v>23.84976008834241</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>24.1078484411402</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>24.25568863357677</v>
+        <v>23.92225111584193</v>
       </c>
       <c r="C149">
-        <v>24.14083552695399</v>
+        <v>22.45088920220444</v>
       </c>
       <c r="D149">
-        <v>24.31764042578175</v>
+        <v>24.21732435186122</v>
       </c>
       <c r="E149">
-        <v>23.98840088564414</v>
+        <v>23.7239469619914</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>23.99327101625935</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>24.12807719701515</v>
+        <v>23.79389178539861</v>
       </c>
       <c r="C150">
-        <v>24.01341929985885</v>
+        <v>22.32920152124859</v>
       </c>
       <c r="D150">
-        <v>24.19086524757739</v>
+        <v>24.09024776869147</v>
       </c>
       <c r="E150">
-        <v>23.86183213698509</v>
+        <v>23.59825299722383</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>23.87876683298526</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>24.00059636475303</v>
+        <v>23.66565901620406</v>
       </c>
       <c r="C151">
-        <v>23.88613062223187</v>
+        <v>22.20760192510643</v>
       </c>
       <c r="D151">
-        <v>24.06421035228927</v>
+        <v>23.96330421432885</v>
       </c>
       <c r="E151">
-        <v>23.73537934616961</v>
+        <v>23.47267879369492</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>23.7643361372185</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>23.87324612101717</v>
+        <v>23.53755289947426</v>
       </c>
       <c r="C152">
-        <v>23.75896940304666</v>
+        <v>22.08609238426827</v>
       </c>
       <c r="D152">
-        <v>23.9376756628942</v>
+        <v>23.83649398318996</v>
       </c>
       <c r="E152">
-        <v>23.6090426552412</v>
+        <v>23.3472248413001</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>23.64997917022952</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>23.7460264444774</v>
+        <v>23.40957351760288</v>
       </c>
       <c r="C153">
-        <v>23.63193554942882</v>
+        <v>21.96467471731302</v>
       </c>
       <c r="D153">
-        <v>23.81126109892634</v>
+        <v>23.7098173244178</v>
       </c>
       <c r="E153">
-        <v>23.48282217973194</v>
+        <v>23.22189155522818</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>23.53569612869672</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>23.61893730831493</v>
+        <v>23.28172091928824</v>
       </c>
       <c r="C154">
-        <v>23.50502896712105</v>
+        <v>21.84335063231296</v>
       </c>
       <c r="D154">
-        <v>23.68496657754569</v>
+        <v>23.58327446491563</v>
       </c>
       <c r="E154">
-        <v>23.35671801192445</v>
+        <v>23.09667933431512</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>23.42148720659481</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>23.49197868323171</v>
+        <v>23.15399515273151</v>
       </c>
       <c r="C155">
-        <v>23.37824956041784</v>
+        <v>21.7221217511733</v>
       </c>
       <c r="D155">
-        <v>23.55879201339911</v>
+        <v>23.4568656009762</v>
       </c>
       <c r="E155">
-        <v>23.23073022304949</v>
+        <v>22.97158851178714</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>23.30735256893419</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>23.36515053456015</v>
+        <v>23.02639624222444</v>
       </c>
       <c r="C156">
-        <v>23.25159723256922</v>
+        <v>21.60098957627087</v>
       </c>
       <c r="D156">
-        <v>23.4327373190135</v>
+        <v>23.33059091041136</v>
       </c>
       <c r="E156">
-        <v>23.10485886570291</v>
+        <v>22.84661939309411</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>23.19329237030199</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>23.23845282637757</v>
+        <v>22.89892419937424</v>
       </c>
       <c r="C157">
-        <v>23.12507188583278</v>
+        <v>21.47995554158746</v>
       </c>
       <c r="D157">
-        <v>23.30680240545616</v>
+        <v>23.20445054640798</v>
       </c>
       <c r="E157">
-        <v>22.97910397640764</v>
+        <v>22.72177224823065</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>23.07930675018163</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>23.11188552064008</v>
+        <v>22.7715790271585</v>
       </c>
       <c r="C158">
-        <v>22.99867342162495</v>
+        <v>21.35902098669623</v>
       </c>
       <c r="D158">
-        <v>23.18098718205875</v>
+        <v>23.07844465029211</v>
       </c>
       <c r="E158">
-        <v>22.85346557668245</v>
+        <v>22.59704730536887</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>22.96539583663813</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>22.98544857483601</v>
+        <v>22.64436071352384</v>
       </c>
       <c r="C159">
-        <v>22.87240174071088</v>
+        <v>21.23818718497826</v>
       </c>
       <c r="D159">
-        <v>23.05529155692544</v>
+        <v>22.95257334123362</v>
       </c>
       <c r="E159">
-        <v>22.72794367625239</v>
+        <v>22.47244478352167</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>22.85155974818466</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>22.85914194834105</v>
+        <v>22.51726923995921</v>
       </c>
       <c r="C160">
-        <v>22.74625674322616</v>
+        <v>21.11745533622792</v>
       </c>
       <c r="D160">
-        <v>22.9297154376227</v>
+        <v>22.82683673058476</v>
       </c>
       <c r="E160">
-        <v>22.60253827229773</v>
+        <v>22.34796486037717</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>22.737798593215</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>22.73296559536563</v>
+        <v>22.39030457784894</v>
       </c>
       <c r="C161">
-        <v>22.62023832903829</v>
+        <v>20.99682657748403</v>
       </c>
       <c r="D161">
-        <v>22.80425872961245</v>
+        <v>22.70123491204745</v>
       </c>
       <c r="E161">
-        <v>22.47724935361492</v>
+        <v>22.22360769228495</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>22.62411247530892</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>22.60691947169802</v>
+        <v>22.26346669235748</v>
       </c>
       <c r="C162">
-        <v>22.49434639732424</v>
+        <v>20.8763019910516</v>
       </c>
       <c r="D162">
-        <v>22.67892133890683</v>
+        <v>22.57576797173775</v>
       </c>
       <c r="E162">
-        <v>22.35207689815367</v>
+        <v>22.09937342720985</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>22.5105014866364</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>22.48100353106001</v>
+        <v>22.13675554092339</v>
       </c>
       <c r="C163">
-        <v>22.36858084737392</v>
+        <v>20.7558825946417</v>
       </c>
       <c r="D163">
-        <v>22.55370316996919</v>
+        <v>22.4504359839973</v>
       </c>
       <c r="E163">
-        <v>22.22702087774003</v>
+        <v>21.97526217015352</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>22.39696571821844</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>22.35521772635097</v>
+        <v>22.01017107564147</v>
       </c>
       <c r="C164">
-        <v>22.24294157818882</v>
+        <v>20.63556936820937</v>
       </c>
       <c r="D164">
-        <v>22.42860412671208</v>
+        <v>22.32523901547517</v>
       </c>
       <c r="E164">
-        <v>22.10208125525762</v>
+        <v>21.85127402759905</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>22.28350525101213</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>22.22956201050709</v>
+        <v>21.88371324374831</v>
       </c>
       <c r="C165">
-        <v>22.11742848832728</v>
+        <v>20.51536322978602</v>
       </c>
       <c r="D165">
-        <v>22.30362411299238</v>
+        <v>22.20017712505592</v>
       </c>
       <c r="E165">
-        <v>21.97725798852585</v>
+        <v>21.72740908269319</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>22.17012016422492</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>22.1040363358621</v>
+        <v>21.75738198558983</v>
       </c>
       <c r="C166">
-        <v>21.99204147680486</v>
+        <v>20.3952650644936</v>
       </c>
       <c r="D166">
-        <v>22.17876303157821</v>
+        <v>22.07525036533717</v>
       </c>
       <c r="E166">
-        <v>21.8525510285333</v>
+        <v>21.60366739941042</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>22.05681053147148</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.97864065502864</v>
+        <v>21.63117723970807</v>
       </c>
       <c r="C167">
-        <v>21.86678044206436</v>
+        <v>20.27527571135751</v>
       </c>
       <c r="D167">
-        <v>22.05402078540275</v>
+        <v>21.9504587832997</v>
       </c>
       <c r="E167">
-        <v>21.72796032195032</v>
+        <v>21.48004903432303</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>21.9435764226178</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21.85337492033864</v>
+        <v>21.50509893772889</v>
       </c>
       <c r="C168">
-        <v>21.74164528290088</v>
+        <v>20.15539596999837</v>
       </c>
       <c r="D168">
-        <v>21.9293972768656</v>
+        <v>21.82580242095409</v>
       </c>
       <c r="E168">
-        <v>21.60348581024853</v>
+        <v>21.3565540281236</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>21.83041790486966</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21.72823908470136</v>
+        <v>21.37914700965836</v>
       </c>
       <c r="C169">
-        <v>21.61663589810748</v>
+        <v>20.03562660829673</v>
       </c>
       <c r="D169">
-        <v>21.80489240819903</v>
+        <v>21.70128131648754</v>
       </c>
       <c r="E169">
-        <v>21.47912743140284</v>
+        <v>21.23318241217842</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>21.71733504235964</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21.60323310125694</v>
+        <v>21.25332138111509</v>
       </c>
       <c r="C170">
-        <v>21.49175218642338</v>
+        <v>19.91596835737931</v>
       </c>
       <c r="D170">
-        <v>21.68050608153225</v>
+        <v>21.57689550385886</v>
       </c>
       <c r="E170">
-        <v>21.35488511922949</v>
+        <v>21.10993420850492</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>21.60432789747135</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21.47835692331309</v>
+        <v>21.12762197476966</v>
       </c>
       <c r="C171">
-        <v>21.36699404689019</v>
+        <v>19.79642192212796</v>
       </c>
       <c r="D171">
-        <v>21.556238198772</v>
+        <v>21.4526450146973</v>
       </c>
       <c r="E171">
-        <v>21.23075880483069</v>
+        <v>20.98680942721515</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>21.49139653003411</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>21.3536105051648</v>
+        <v>21.00204871083989</v>
       </c>
       <c r="C172">
-        <v>21.24236137861903</v>
+        <v>19.67698797538451</v>
       </c>
       <c r="D172">
-        <v>21.43208866193413</v>
+        <v>21.32852987721344</v>
       </c>
       <c r="E172">
-        <v>21.10674841588605</v>
+        <v>20.86380807452802</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>21.37854099926232</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>21.22899380116016</v>
+        <v>20.87660150682327</v>
       </c>
       <c r="C173">
-        <v>21.11785408097515</v>
+        <v>19.55766716738896</v>
       </c>
       <c r="D173">
-        <v>21.30805737282442</v>
+        <v>21.2045501182005</v>
       </c>
       <c r="E173">
-        <v>20.9828538779348</v>
+        <v>20.74093014639196</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>21.26576136190826</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>21.10450676674088</v>
+        <v>20.75128027844579</v>
       </c>
       <c r="C174">
-        <v>20.99347205355472</v>
+        <v>19.43846012275763</v>
       </c>
       <c r="D174">
-        <v>21.18414423336215</v>
+        <v>21.08070576208952</v>
       </c>
       <c r="E174">
-        <v>20.85907511376569</v>
+        <v>20.6181756312955</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>21.15305767469811</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>20.98014935791139</v>
+        <v>20.62608493893674</v>
       </c>
       <c r="C175">
-        <v>20.86921519617716</v>
+        <v>19.31936744290465</v>
       </c>
       <c r="D175">
-        <v>21.06034914551648</v>
+        <v>20.95699683246338</v>
       </c>
       <c r="E175">
-        <v>20.73541204440817</v>
+        <v>20.4955445149674</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>21.04042999290998</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>20.85592153152002</v>
+        <v>20.50101540040515</v>
       </c>
       <c r="C176">
-        <v>20.74508340902443</v>
+        <v>19.20038971105489</v>
       </c>
       <c r="D176">
-        <v>20.93667201116389</v>
+        <v>20.83342335147522</v>
       </c>
       <c r="E176">
-        <v>20.61186458875807</v>
+        <v>20.37303677217493</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>20.92787837121354</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>20.73182324537062</v>
+        <v>20.37607157290081</v>
       </c>
       <c r="C177">
-        <v>20.62107659249542</v>
+        <v>19.08152748765717</v>
       </c>
       <c r="D177">
-        <v>20.81311273242966</v>
+        <v>20.70998534099251</v>
       </c>
       <c r="E177">
-        <v>20.48843266417877</v>
+        <v>20.25065237652467</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>20.81540286402777</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>20.60785445819993</v>
+        <v>20.25125336517248</v>
       </c>
       <c r="C178">
-        <v>20.49719464737996</v>
+        <v>18.9627813189659</v>
       </c>
       <c r="D178">
-        <v>20.68967121141344</v>
+        <v>20.58668282207613</v>
       </c>
       <c r="E178">
-        <v>20.36511618629707</v>
+        <v>20.12839129547921</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>20.70300352519693</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>20.48401512984504</v>
+        <v>20.12656068484045</v>
       </c>
       <c r="C179">
-        <v>20.37343747481318</v>
+        <v>18.84415173192018</v>
       </c>
       <c r="D179">
-        <v>20.56634735039572</v>
+        <v>20.46351581606564</v>
       </c>
       <c r="E179">
-        <v>20.2419150699048</v>
+        <v>20.00625349086085</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>20.59068040871669</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>20.36030522116157</v>
+        <v>20.00199343796217</v>
       </c>
       <c r="C180">
-        <v>20.2498049762379</v>
+        <v>18.7256392400726</v>
       </c>
       <c r="D180">
-        <v>20.44314105179348</v>
+        <v>20.34048434397062</v>
       </c>
       <c r="E180">
-        <v>20.11882922828755</v>
+        <v>19.88423892213277</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>20.47843356841133</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>20.23672469425598</v>
+        <v>19.87755152996493</v>
       </c>
       <c r="C181">
-        <v>20.12629705354626</v>
+        <v>18.60724434167414</v>
       </c>
       <c r="D181">
-        <v>20.32005221816302</v>
+        <v>20.21758842750952</v>
       </c>
       <c r="E181">
-        <v>19.99585857334815</v>
+        <v>19.76234754412426</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>20.3662630585046</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>20.11327351239909</v>
+        <v>19.75323486498677</v>
       </c>
       <c r="C182">
-        <v>20.00291360898699</v>
+        <v>18.48896752150081</v>
       </c>
       <c r="D182">
-        <v>20.19708075227243</v>
+        <v>20.09482808856188</v>
       </c>
       <c r="E182">
-        <v>19.87300301720253</v>
+        <v>19.64057930869263</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>20.2541689332951</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.98995164009511</v>
+        <v>19.62904334658846</v>
       </c>
       <c r="C183">
-        <v>19.8796545452423</v>
+        <v>18.370809255663</v>
       </c>
       <c r="D183">
-        <v>20.07422655705079</v>
+        <v>19.97220335000085</v>
       </c>
       <c r="E183">
-        <v>19.75026247030194</v>
+        <v>19.51893416508866</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>20.14215124775331</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>19.8667590432296</v>
+        <v>19.50497687746784</v>
       </c>
       <c r="C184">
-        <v>19.75651976543116</v>
+        <v>18.25277001020857</v>
       </c>
       <c r="D184">
-        <v>19.95148953567149</v>
+        <v>19.84971423537161</v>
       </c>
       <c r="E184">
-        <v>19.62763684202226</v>
+        <v>19.39741205887495</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>20.03021005722129</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>19.74369568895719</v>
+        <v>19.38103535972698</v>
       </c>
       <c r="C185">
-        <v>19.63350917311524</v>
+        <v>18.13485023101619</v>
       </c>
       <c r="D185">
-        <v>19.82886959151952</v>
+        <v>19.72736076942168</v>
       </c>
       <c r="E185">
-        <v>19.50512604238795</v>
+        <v>19.27601293435927</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>19.91834541771556</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>19.6207615459083</v>
+        <v>19.25721869494807</v>
       </c>
       <c r="C186">
-        <v>19.51062267233425</v>
+        <v>18.01705036839218</v>
       </c>
       <c r="D186">
-        <v>19.70636662819922</v>
+        <v>19.60514297802212</v>
       </c>
       <c r="E186">
-        <v>19.38272997987728</v>
+        <v>19.15473673304201</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>19.80655738602796</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>19.4979565841334</v>
+        <v>19.13352678413319</v>
       </c>
       <c r="C187">
-        <v>19.38786016760148</v>
+        <v>17.89937086271932</v>
       </c>
       <c r="D187">
-        <v>19.58398054959969</v>
+        <v>19.48306088846991</v>
       </c>
       <c r="E187">
-        <v>19.26044856233652</v>
+        <v>19.03358339404928</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>19.69484601964635</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>19.37528077519161</v>
+        <v>19.00995952802976</v>
       </c>
       <c r="C188">
-        <v>19.26522156393543</v>
+        <v>17.78181214182312</v>
       </c>
       <c r="D188">
-        <v>19.46171125982375</v>
+        <v>19.36111452954249</v>
       </c>
       <c r="E188">
-        <v>19.13828169796905</v>
+        <v>18.91255285565331</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>19.58321137708128</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>19.25273409219708</v>
+        <v>18.88651682683618</v>
       </c>
       <c r="C189">
-        <v>19.14270676686923</v>
+        <v>17.66437462321617</v>
       </c>
       <c r="D189">
-        <v>19.33955866328009</v>
+        <v>19.23930393167196</v>
       </c>
       <c r="E189">
-        <v>19.01622929400699</v>
+        <v>18.79164505335365</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>19.47165351770449</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19.1303165098614</v>
+        <v>18.76319858064027</v>
       </c>
       <c r="C190">
-        <v>19.0203156824525</v>
+        <v>17.5470587305379</v>
       </c>
       <c r="D190">
-        <v>19.21752266464343</v>
+        <v>19.11762912707419</v>
       </c>
       <c r="E190">
-        <v>18.8942912573884</v>
+        <v>18.6708599219187</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>19.36017250203477</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.00802800454498</v>
+        <v>18.64000468917302</v>
       </c>
       <c r="C191">
-        <v>18.89804821729149</v>
+        <v>17.4298648795768</v>
       </c>
       <c r="D191">
-        <v>19.09560316887284</v>
+        <v>18.99609014983444</v>
       </c>
       <c r="E191">
-        <v>18.77246749506406</v>
+        <v>18.55019739468608</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>19.24876839164401</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.88586855429932</v>
+        <v>18.51693505200016</v>
       </c>
       <c r="C192">
-        <v>18.7759042785388</v>
+        <v>17.31279346800532</v>
       </c>
       <c r="D192">
-        <v>18.97380008123957</v>
+        <v>18.87468703605318</v>
       </c>
       <c r="E192">
-        <v>18.65075791354945</v>
+        <v>18.42965740338222</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>19.1374412493656</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>18.76383813892348</v>
+        <v>18.3939895685734</v>
       </c>
       <c r="C193">
-        <v>18.65388377392156</v>
+        <v>17.19584490395107</v>
       </c>
       <c r="D193">
-        <v>18.85211330731611</v>
+        <v>18.75341982391263</v>
       </c>
       <c r="E193">
-        <v>18.52916241925112</v>
+        <v>18.30923987919655</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>19.02619113926091</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>18.64193674000291</v>
+        <v>18.27116813818423</v>
       </c>
       <c r="C194">
-        <v>18.53198661175447</v>
+        <v>17.07901958878445</v>
       </c>
       <c r="D194">
-        <v>18.73054275300199</v>
+        <v>18.63228855398344</v>
       </c>
       <c r="E194">
-        <v>18.40768091855021</v>
+        <v>18.18894475212022</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>18.91501812673967</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.52016434095951</v>
+        <v>18.14847066013545</v>
       </c>
       <c r="C195">
-        <v>18.4102127009516</v>
+        <v>16.96231791886276</v>
       </c>
       <c r="D195">
-        <v>18.60908832452358</v>
+        <v>18.51129326909715</v>
       </c>
       <c r="E195">
-        <v>18.28631331756906</v>
+        <v>18.06877195138922</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>18.80392227861664</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>18.39852092710399</v>
+        <v>18.02589703364588</v>
       </c>
       <c r="C196">
-        <v>18.28856195104277</v>
+        <v>16.84574028538616</v>
       </c>
       <c r="D196">
-        <v>18.48774992844633</v>
+        <v>18.39043401438621</v>
       </c>
       <c r="E196">
-        <v>18.16505952248819</v>
+        <v>17.94872140574663</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>18.69290366313606</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>18.27700648568401</v>
+        <v>17.90344715801459</v>
       </c>
       <c r="C197">
-        <v>18.16703427219241</v>
+        <v>16.72928708282511</v>
       </c>
       <c r="D197">
-        <v>18.36652747168773</v>
+        <v>18.26971083791776</v>
       </c>
       <c r="E197">
-        <v>18.04391943955645</v>
+        <v>17.82879304301398</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>18.58196235009141</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>18.15562100592633</v>
+        <v>17.78112093255464</v>
       </c>
       <c r="C198">
-        <v>18.04562957521036</v>
+        <v>16.61295870265275</v>
       </c>
       <c r="D198">
-        <v>18.24542086151654</v>
+        <v>18.14912379030174</v>
       </c>
       <c r="E198">
-        <v>17.92289297476118</v>
+        <v>17.70898679089481</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>18.47109841079144</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>18.03436447910976</v>
+        <v>17.6589182566825</v>
       </c>
       <c r="C199">
-        <v>17.92434777156857</v>
+        <v>16.49675553279559</v>
       </c>
       <c r="D199">
-        <v>18.12443000557441</v>
+        <v>18.02867292455742</v>
       </c>
       <c r="E199">
-        <v>17.801980034306</v>
+        <v>17.58930257656726</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>18.36031191825903</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>17.91323689859101</v>
+        <v>17.53683902994396</v>
       </c>
       <c r="C200">
-        <v>17.80318877342298</v>
+        <v>16.38067796313695</v>
       </c>
       <c r="D200">
-        <v>18.00355481187525</v>
+        <v>17.90835829709049</v>
       </c>
       <c r="E200">
-        <v>17.68118052449425</v>
+        <v>17.46974032675993</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>18.24960294722318</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>17.79223825987573</v>
+        <v>17.41488315200064</v>
       </c>
       <c r="C201">
-        <v>17.68215249361899</v>
+        <v>16.26472638340366</v>
       </c>
       <c r="D201">
-        <v>17.8827951888174</v>
+        <v>17.78817996714207</v>
       </c>
       <c r="E201">
-        <v>17.56049435145249</v>
+        <v>17.35029996825991</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>18.13897157403208</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>17.67136856067913</v>
+        <v>17.2930505227336</v>
       </c>
       <c r="C202">
-        <v>17.56123884571944</v>
+        <v>16.14890118295129</v>
       </c>
       <c r="D202">
-        <v>17.76215104519468</v>
+        <v>17.6681379967094</v>
       </c>
       <c r="E202">
-        <v>17.43992142158181</v>
+        <v>17.23098142744158</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>18.02841787698334</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>17.55062780095277</v>
+        <v>17.17134104218165</v>
       </c>
       <c r="C203">
-        <v>17.44044774401397</v>
+        <v>16.03320275042811</v>
       </c>
       <c r="D203">
-        <v>17.64162229020359</v>
+        <v>17.54823245131355</v>
       </c>
       <c r="E203">
-        <v>17.31946164138111</v>
+        <v>17.1117846307342</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>17.91794193626291</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>17.43001598299011</v>
+        <v>17.04975461065127</v>
       </c>
       <c r="C204">
-        <v>17.31977910353673</v>
+        <v>15.91763147813529</v>
       </c>
       <c r="D204">
-        <v>17.52120883345261</v>
+        <v>17.42846339964704</v>
       </c>
       <c r="E204">
-        <v>17.19911491735161</v>
+        <v>16.99270950458762</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>17.80754383391595</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.3095331114284</v>
+        <v>16.9282911286808</v>
       </c>
       <c r="C205">
-        <v>17.19923284009361</v>
+        <v>15.80218775933661</v>
       </c>
       <c r="D205">
-        <v>17.40091058497446</v>
+        <v>17.3088309137152</v>
       </c>
       <c r="E205">
-        <v>17.07888115624015</v>
+        <v>16.87375597535696</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>17.69722365391296</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.18917919335899</v>
+        <v>16.80695049709419</v>
       </c>
       <c r="C206">
-        <v>17.07880887026312</v>
+        <v>15.686871986403</v>
       </c>
       <c r="D206">
-        <v>17.28072745523332</v>
+        <v>17.1893350690539</v>
       </c>
       <c r="E206">
-        <v>16.95876026493093</v>
+        <v>16.75492396967574</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>17.58698148241726</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>17.06895423836214</v>
+        <v>16.68573261701675</v>
       </c>
       <c r="C207">
-        <v>16.95850711143417</v>
+        <v>15.57168455589999</v>
       </c>
       <c r="D207">
-        <v>17.16065935513468</v>
+        <v>17.06997594475314</v>
       </c>
       <c r="E207">
-        <v>16.83875215044403</v>
+        <v>16.6362134142181</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>17.47681740764989</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.94885825856795</v>
+        <v>16.56463738988308</v>
       </c>
       <c r="C208">
-        <v>16.83832748181293</v>
+        <v>15.45662586721257</v>
       </c>
       <c r="D208">
-        <v>17.04070619604002</v>
+        <v>16.95075362367629</v>
       </c>
       <c r="E208">
-        <v>16.71885672003459</v>
+        <v>16.51762423589977</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>17.36673151990289</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.82889126875679</v>
+        <v>16.44366471751092</v>
       </c>
       <c r="C209">
-        <v>16.71826990044196</v>
+        <v>15.34169632170357</v>
       </c>
       <c r="D209">
-        <v>16.92086788976933</v>
+        <v>16.83166819242312</v>
       </c>
       <c r="E209">
-        <v>16.59907388115769</v>
+        <v>16.39915636208251</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>17.25672391178718</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>16.70905328636404</v>
+        <v>16.32281450209694</v>
       </c>
       <c r="C210">
-        <v>16.59833428723776</v>
+        <v>15.22689632191382</v>
       </c>
       <c r="D210">
-        <v>16.80114434862035</v>
+        <v>16.71271974148745</v>
       </c>
       <c r="E210">
-        <v>16.47940354144581</v>
+        <v>16.28080972050745</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>17.14679467815924</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>16.5893443316766</v>
+        <v>16.2020866461383</v>
       </c>
       <c r="C211">
-        <v>16.4785205629832</v>
+        <v>15.11222627626133</v>
       </c>
       <c r="D211">
-        <v>16.68153548537293</v>
+        <v>16.59390836546768</v>
       </c>
       <c r="E211">
-        <v>16.35984560881763</v>
+        <v>16.16258423896637</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>17.03694391625195</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>16.46976442772334</v>
+        <v>16.0814810526517</v>
       </c>
       <c r="C212">
-        <v>16.35882864937731</v>
+        <v>14.99768659600764</v>
       </c>
       <c r="D212">
-        <v>16.56204121330196</v>
+        <v>16.47523416307712</v>
       </c>
       <c r="E212">
-        <v>16.24039999142759</v>
+        <v>16.04447984586261</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>16.92717172569343</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>16.35031360042684</v>
+        <v>15.96099762508533</v>
       </c>
       <c r="C213">
-        <v>16.23925846904174</v>
+        <v>14.8832776955221</v>
       </c>
       <c r="D213">
-        <v>16.44266144619366</v>
+        <v>16.35669723722722</v>
       </c>
       <c r="E213">
-        <v>16.1210665976365</v>
+        <v>15.92649647041851</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>16.81747820855301</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>16.23099187874957</v>
+        <v>15.84063626730848</v>
       </c>
       <c r="C214">
-        <v>16.11980994554068</v>
+        <v>14.76899999380173</v>
       </c>
       <c r="D214">
-        <v>16.3233960983466</v>
+        <v>16.23829769527217</v>
       </c>
       <c r="E214">
-        <v>16.00184533613552</v>
+        <v>15.8086340423675</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>16.70786346946617</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>16.11179929483356</v>
+        <v>15.72039688361062</v>
       </c>
       <c r="C215">
-        <v>16.00048300342824</v>
+        <v>14.65485391461142</v>
       </c>
       <c r="D215">
-        <v>16.20424508459789</v>
+        <v>16.12003564908019</v>
       </c>
       <c r="E215">
-        <v>15.88273611587993</v>
+        <v>15.69089249146232</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>16.59832761577465</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.99273588369351</v>
+        <v>15.60027937889454</v>
       </c>
       <c r="C216">
-        <v>15.88127756823597</v>
+        <v>14.54083988633201</v>
       </c>
       <c r="D216">
-        <v>16.0852083203227</v>
+        <v>16.00191121503812</v>
       </c>
       <c r="E216">
-        <v>15.76373884608299</v>
+        <v>15.57327174841715</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>16.48887075735476</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.87380168359148</v>
+        <v>15.48028365855265</v>
       </c>
       <c r="C217">
-        <v>15.76219356654813</v>
+        <v>14.42695834223709</v>
       </c>
       <c r="D217">
-        <v>15.9662857214569</v>
+        <v>15.88392451434665</v>
       </c>
       <c r="E217">
-        <v>15.64485343630114</v>
+        <v>15.4557717449516</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>16.37949300685803</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>15.75499673647106</v>
+        <v>15.3604096284374</v>
       </c>
       <c r="C218">
-        <v>15.64323092598662</v>
+        <v>14.31320972129021</v>
       </c>
       <c r="D218">
-        <v>15.84747720451546</v>
+        <v>15.76607567317142</v>
       </c>
       <c r="E218">
-        <v>15.52607979639339</v>
+        <v>15.33839241340419</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>16.27019447990093</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.63632108736018</v>
+        <v>15.24065719503341</v>
       </c>
       <c r="C219">
-        <v>15.52438957522338</v>
+        <v>14.19959446808842</v>
       </c>
       <c r="D219">
-        <v>15.72878268657748</v>
+        <v>15.64836482250827</v>
       </c>
       <c r="E219">
-        <v>15.4074178365349</v>
+        <v>15.22113368642391</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>16.16097529486448</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>15.51777478470006</v>
+        <v>15.12102626539668</v>
       </c>
       <c r="C220">
-        <v>15.4056694440219</v>
+        <v>14.08611303307917</v>
       </c>
       <c r="D220">
-        <v>15.61020208531632</v>
+        <v>15.53079209857047</v>
       </c>
       <c r="E220">
-        <v>15.28886746725087</v>
+        <v>15.1039954977714</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>16.05183557309305</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.39935788061567</v>
+        <v>15.00151674717873</v>
       </c>
       <c r="C221">
-        <v>15.28707046341954</v>
+        <v>13.97276587305249</v>
       </c>
       <c r="D221">
-        <v>15.49173531905382</v>
+        <v>15.41335764306163</v>
       </c>
       <c r="E221">
-        <v>15.17042859941285</v>
+        <v>14.98697778221689</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>15.94277543905128</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.28107043131031</v>
+        <v>14.88212854865198</v>
       </c>
       <c r="C222">
-        <v>15.1685925654513</v>
+        <v>13.85955345149103</v>
       </c>
       <c r="D222">
-        <v>15.37338230672458</v>
+        <v>15.29606160283532</v>
       </c>
       <c r="E222">
-        <v>15.05210114425481</v>
+        <v>14.87008047534238</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>15.83379502039065</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.1629124962096</v>
+        <v>14.76286157873518</v>
       </c>
       <c r="C223">
-        <v>15.05023568335901</v>
+        <v>13.74647623872582</v>
       </c>
       <c r="D223">
-        <v>15.25514296786795</v>
+        <v>15.17890413039811</v>
       </c>
       <c r="E223">
-        <v>14.9338850133832</v>
+        <v>14.75330351353712</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>15.72489444782368</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>15.04488413876206</v>
+        <v>14.6437157470103</v>
       </c>
       <c r="C224">
-        <v>14.93199975161856</v>
+        <v>13.63353471221802</v>
       </c>
       <c r="D224">
-        <v>15.13701722268218</v>
+        <v>15.06188538431684</v>
       </c>
       <c r="E224">
-        <v>14.81578011879081</v>
+        <v>14.63664683428301</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>15.61607385539297</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.92698542670327</v>
+        <v>14.52469096379133</v>
       </c>
       <c r="C225">
-        <v>14.8138847061798</v>
+        <v>13.52072935700032</v>
       </c>
       <c r="D225">
-        <v>15.01900499214957</v>
+        <v>14.94500552868049</v>
       </c>
       <c r="E225">
-        <v>14.69778637286947</v>
+        <v>14.52011037611816</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>15.50733338075356</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>14.80921643179167</v>
+        <v>14.4057871400727</v>
       </c>
       <c r="C226">
-        <v>14.69589048398793</v>
+        <v>13.4080606658752</v>
       </c>
       <c r="D226">
-        <v>14.9011061978338</v>
+        <v>14.8282647337039</v>
       </c>
       <c r="E226">
-        <v>14.57990368841804</v>
+        <v>14.4036940786345</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>15.39867316475399</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.69157722977706</v>
+        <v>14.28700418758527</v>
       </c>
       <c r="C227">
-        <v>14.57801702338699</v>
+        <v>13.29552913996965</v>
       </c>
       <c r="D227">
-        <v>14.78332076201241</v>
+        <v>14.71166317624543</v>
       </c>
       <c r="E227">
-        <v>14.46213197865894</v>
+        <v>14.28739788263658</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>15.29009335185886</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.57406790083469</v>
+        <v>14.16834201884006</v>
       </c>
       <c r="C228">
-        <v>14.46026426415349</v>
+        <v>13.18313528886927</v>
       </c>
       <c r="D228">
-        <v>14.66564860769968</v>
+        <v>14.59520103914994</v>
       </c>
       <c r="E228">
-        <v>14.34447115725056</v>
+        <v>14.17122173004127</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>15.18159409035782</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.45668853012752</v>
+        <v>14.04980054717379</v>
       </c>
       <c r="C229">
-        <v>14.34263214760278</v>
+        <v>13.07087963073889</v>
       </c>
       <c r="D229">
-        <v>14.54808965878579</v>
+        <v>14.47887851191699</v>
       </c>
       <c r="E229">
-        <v>14.22692113829407</v>
+        <v>14.05516556398715</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>15.0731755322448</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.33943920678326</v>
+        <v>13.93137968668026</v>
       </c>
       <c r="C230">
-        <v>14.22512061623382</v>
+        <v>12.95876269294653</v>
       </c>
       <c r="D230">
-        <v>14.43064383976433</v>
+        <v>14.36269579118547</v>
       </c>
       <c r="E230">
-        <v>14.10948183635516</v>
+        <v>13.93922932889279</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>14.96483783323198</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.22232002480422</v>
+        <v>13.81307935230747</v>
       </c>
       <c r="C231">
-        <v>14.10772961409772</v>
+        <v>12.84678501326848</v>
       </c>
       <c r="D231">
-        <v>14.31331107596008</v>
+        <v>14.24665308031432</v>
       </c>
       <c r="E231">
-        <v>13.99215316647633</v>
+        <v>13.82341297063254</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>14.85658115308494</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.10533108330439</v>
+        <v>13.69489945993248</v>
       </c>
       <c r="C232">
-        <v>13.9904590869117</v>
+        <v>12.73494713829703</v>
       </c>
       <c r="D232">
-        <v>14.19609129353696</v>
+        <v>14.1307505897547</v>
       </c>
       <c r="E232">
-        <v>13.87493504417798</v>
+        <v>13.70771643634102</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>14.74840565588208</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.98847248655487</v>
+        <v>13.57683992628249</v>
       </c>
       <c r="C233">
-        <v>13.8733089819559</v>
+        <v>12.62324962511469</v>
       </c>
       <c r="D233">
-        <v>14.07898441956349</v>
+        <v>14.01498853768457</v>
       </c>
       <c r="E233">
-        <v>13.7578273854924</v>
+        <v>13.5921396745883</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>14.64031150952817</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.87174434351741</v>
+        <v>13.45890066899867</v>
       </c>
       <c r="C234">
-        <v>13.75627924797072</v>
+        <v>12.51169304199431</v>
       </c>
       <c r="D234">
-        <v>13.96199038183512</v>
+        <v>13.89936714981173</v>
       </c>
       <c r="E234">
-        <v>13.64083010697187</v>
+        <v>13.47668263542858</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>14.53229888628996</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.7551467685647</v>
+        <v>13.34108160670245</v>
       </c>
       <c r="C235">
-        <v>13.63936983540074</v>
+        <v>12.40027796848173</v>
       </c>
       <c r="D235">
-        <v>13.84510910905901</v>
+        <v>13.78388665942275</v>
       </c>
       <c r="E235">
-        <v>13.52394312568604</v>
+        <v>13.36134527061171</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>14.42436796319483</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.63867988232441</v>
+        <v>13.22338265907082</v>
       </c>
       <c r="C236">
-        <v>13.5225806966472</v>
+        <v>12.28900499470214</v>
       </c>
       <c r="D236">
-        <v>13.72834053091698</v>
+        <v>13.66854730817956</v>
       </c>
       <c r="E236">
-        <v>13.40716635926867</v>
+        <v>13.24612753331474</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>14.31651892149276</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.52234381027304</v>
+        <v>13.1058037466956</v>
       </c>
       <c r="C237">
-        <v>13.40591178567671</v>
+        <v>12.17787472285604</v>
       </c>
       <c r="D237">
-        <v>13.6116845780208</v>
+        <v>13.55334934617795</v>
       </c>
       <c r="E237">
-        <v>13.29049972591847</v>
+        <v>13.1310293783818</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>14.20875194707618</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.40613868381008</v>
+        <v>12.98834479124223</v>
       </c>
       <c r="C238">
-        <v>13.28936305824024</v>
+        <v>12.06688776925553</v>
       </c>
       <c r="D238">
-        <v>13.49514118185142</v>
+        <v>13.43829303163558</v>
       </c>
       <c r="E238">
-        <v>13.17394314439842</v>
+        <v>13.01605076235363</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>14.10106723080498</v>
       </c>
     </row>
   </sheetData>
